--- a/ResultadoEleicoesDistritos/VISEU_CARREGAL DO SAL.xlsx
+++ b/ResultadoEleicoesDistritos/VISEU_CARREGAL DO SAL.xlsx
@@ -597,64 +597,64 @@
         <v>2673</v>
       </c>
       <c r="H2" t="n">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="I2" t="n">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="J2" t="n">
-        <v>1094</v>
+        <v>1099</v>
       </c>
       <c r="K2" t="n">
         <v>4</v>
       </c>
       <c r="L2" t="n">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="M2" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="N2" t="n">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="O2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>3</v>
       </c>
       <c r="Q2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="S2" t="n">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="T2" t="n">
-        <v>178</v>
+        <v>212</v>
       </c>
       <c r="U2" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="V2" t="n">
-        <v>1720</v>
+        <v>1659</v>
       </c>
       <c r="W2" t="n">
         <v>1</v>
       </c>
       <c r="X2" t="n">
-        <v>1730</v>
+        <v>1743</v>
       </c>
       <c r="Y2" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="Z2" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AA2" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
